--- a/utils/data/wizard-content.xlsx
+++ b/utils/data/wizard-content.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
   <si>
     <t xml:space="preserve">paragraphs</t>
   </si>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">Lets get started</t>
   </si>
   <si>
-    <t xml:space="preserve">My Concerns</t>
-  </si>
-  <si>
     <t xml:space="preserve">informational</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t xml:space="preserve">Secure My Home or Apartment</t>
   </si>
   <si>
-    <t xml:space="preserve">/checklists/Youth%20Loan%20Readiness%20Checklist.pdf</t>
+    <t xml:space="preserve">/guides/Youth%20Loan%20Readiness%20Checklist.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Search for Cameras or Listening Devices </t>
@@ -606,7 +603,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="AB10" activeCellId="1" sqref="AB5 AB7:AB10 AB12:AB13 AG11 AL9:AL10 AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,17 +842,15 @@
       <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="20"/>
@@ -876,46 +871,46 @@
         <v>2</v>
       </c>
       <c r="Y3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="AA3" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="AB3" s="18"/>
       <c r="AC3" s="20" t="n">
         <v>4</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG3" s="18"/>
       <c r="AH3" s="20" t="n">
         <v>3</v>
       </c>
       <c r="AI3" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK3" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL3" s="18"/>
       <c r="AM3" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AN3" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO3" s="17"/>
       <c r="AP3" s="17"/>
@@ -935,26 +930,26 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="0"/>
+      <c r="F4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="20"/>
@@ -975,46 +970,46 @@
         <v>5</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="20" t="n">
         <v>6</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG4" s="18"/>
       <c r="AH4" s="20" t="n">
         <v>7</v>
       </c>
       <c r="AI4" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" s="18"/>
       <c r="AM4" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AN4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO4" s="17"/>
       <c r="AP4" s="17"/>
@@ -1034,26 +1029,26 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="17" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="0"/>
+      <c r="F5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="20"/>
@@ -1072,29 +1067,29 @@
       <c r="W5" s="18"/>
       <c r="X5" s="0"/>
       <c r="Y5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="20"/>
       <c r="AD5" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH5" s="20"/>
       <c r="AI5" s="17"/>
@@ -1105,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="AN5" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO5" s="17"/>
       <c r="AP5" s="17"/>
@@ -1125,26 +1120,26 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="17" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="20"/>
@@ -1165,46 +1160,46 @@
         <v>8</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" s="18"/>
       <c r="AC6" s="20" t="n">
         <v>9</v>
       </c>
       <c r="AD6" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG6" s="18"/>
       <c r="AH6" s="20" t="n">
         <v>10</v>
       </c>
       <c r="AI6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL6" s="18"/>
       <c r="AM6" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17"/>
@@ -1224,26 +1219,26 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="17" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>36</v>
+      <c r="D7" s="17" t="s">
+        <v>35</v>
       </c>
+      <c r="E7" s="0"/>
       <c r="F7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20"/>
@@ -1262,29 +1257,29 @@
       <c r="W7" s="18"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC7" s="20"/>
       <c r="AD7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF7" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG7" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH7" s="20"/>
       <c r="AI7" s="17"/>
@@ -1295,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="AN7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO7" s="17"/>
       <c r="AP7" s="17"/>
@@ -1315,26 +1310,26 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="17" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>36</v>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
       </c>
+      <c r="E8" s="0"/>
       <c r="F8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="20"/>
@@ -1353,29 +1348,29 @@
       <c r="W8" s="18"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB8" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC8" s="20"/>
       <c r="AD8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF8" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH8" s="20"/>
       <c r="AI8" s="17"/>
@@ -1386,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="AN8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
@@ -1406,26 +1401,26 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="17" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>36</v>
+      <c r="D9" s="17" t="s">
+        <v>35</v>
       </c>
+      <c r="E9" s="0"/>
       <c r="F9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1444,48 +1439,48 @@
       <c r="W9" s="18"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB9" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="20"/>
       <c r="AD9" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH9" s="20"/>
       <c r="AI9" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AK9" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AL9" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM9" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AN9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO9" s="17"/>
       <c r="AP9" s="17"/>
@@ -1505,26 +1500,26 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>52</v>
+      <c r="D10" s="17" t="s">
+        <v>51</v>
       </c>
+      <c r="E10" s="0"/>
       <c r="F10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="20"/>
@@ -1543,48 +1538,48 @@
       <c r="W10" s="18"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC10" s="20"/>
       <c r="AD10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AK10" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AL10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM10" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AN10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
@@ -1604,26 +1599,26 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>52</v>
+      <c r="D11" s="17" t="s">
+        <v>51</v>
       </c>
+      <c r="E11" s="0"/>
       <c r="F11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
@@ -1644,27 +1639,27 @@
         <v>11</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG11" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="20"/>
       <c r="AI11" s="17"/>
@@ -1675,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="AN11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
@@ -1695,26 +1690,26 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
-        <v>52</v>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
       </c>
+      <c r="E12" s="0"/>
       <c r="F12" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="20"/>
@@ -1733,29 +1728,29 @@
       <c r="W12" s="18"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA12" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC12" s="20"/>
       <c r="AD12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH12" s="20"/>
       <c r="AI12" s="17"/>
@@ -1766,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="AN12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
@@ -1786,26 +1781,26 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>52</v>
+      <c r="D13" s="17" t="s">
+        <v>51</v>
       </c>
+      <c r="E13" s="0"/>
       <c r="F13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="20"/>
@@ -1824,48 +1819,48 @@
       <c r="W13" s="18"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AB13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC13" s="20"/>
       <c r="AD13" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AG13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH13" s="20"/>
       <c r="AI13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AK13" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="AL13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM13" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AN13" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>

--- a/utils/data/wizard-content.xlsx
+++ b/utils/data/wizard-content.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
   <si>
     <t xml:space="preserve">paragraphs</t>
   </si>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Discover Other Topics</t>
   </si>
   <si>
-    <t xml:space="preserve">device</t>
+    <t xml:space="preserve">going</t>
   </si>
   <si>
     <t xml:space="preserve">Keep my devices safe</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Other Smart Devices</t>
   </si>
   <si>
-    <t xml:space="preserve">physical</t>
+    <t xml:space="preserve">done</t>
   </si>
   <si>
     <t xml:space="preserve">Keep my environment safe</t>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.techsafety.org/resources-survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">online</t>
   </si>
   <si>
     <t xml:space="preserve">Keep myself safe online</t>
@@ -599,11 +596,11 @@
   <dimension ref="A1:BC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB10" activeCellId="1" sqref="AB5 AB7:AB10 AB12:AB13 AG11 AL9:AL10 AL13"/>
+      <selection pane="bottomRight" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,16 +1117,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B6" s="17" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="18" t="s">
@@ -1139,7 +1136,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="20"/>
@@ -1173,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="AD6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>28</v>
@@ -1186,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ6" s="22" t="s">
         <v>28</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B7" s="17" t="n">
         <v>5</v>
@@ -1257,7 +1254,7 @@
       <c r="W7" s="18"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z7" s="22" t="s">
         <v>28</v>
@@ -1270,7 +1267,7 @@
       </c>
       <c r="AC7" s="20"/>
       <c r="AD7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="17" t="s">
         <v>28</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" s="17" t="n">
         <v>6</v>
@@ -1348,7 +1345,7 @@
       <c r="W8" s="18"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z8" s="22" t="s">
         <v>28</v>
@@ -1361,7 +1358,7 @@
       </c>
       <c r="AC8" s="20"/>
       <c r="AD8" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="17" t="s">
         <v>28</v>
@@ -1401,13 +1398,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="17" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>35</v>
@@ -1439,7 +1436,7 @@
       <c r="W9" s="18"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="22" t="s">
         <v>28</v>
@@ -1452,7 +1449,7 @@
       </c>
       <c r="AC9" s="20"/>
       <c r="AD9" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE9" s="17" t="s">
         <v>28</v>
@@ -1465,7 +1462,7 @@
       </c>
       <c r="AH9" s="20"/>
       <c r="AI9" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ9" s="22" t="s">
         <v>28</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>8</v>
@@ -1509,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="18" t="s">
@@ -1519,7 +1516,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="20"/>
@@ -1538,7 +1535,7 @@
       <c r="W10" s="18"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z10" s="22" t="s">
         <v>28</v>
@@ -1551,7 +1548,7 @@
       </c>
       <c r="AC10" s="20"/>
       <c r="AD10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE10" s="17" t="s">
         <v>28</v>
@@ -1564,7 +1561,7 @@
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AJ10" s="22" t="s">
         <v>28</v>
@@ -1599,16 +1596,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="18" t="s">
@@ -1618,7 +1615,7 @@
         <v>44</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
@@ -1639,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="22" t="s">
         <v>28</v>
@@ -1650,7 +1647,7 @@
       <c r="AB11" s="18"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE11" s="22" t="s">
         <v>28</v>
@@ -1690,16 +1687,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="18" t="s">
@@ -1709,7 +1706,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="20"/>
@@ -1728,7 +1725,7 @@
       <c r="W12" s="18"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="22" t="s">
         <v>28</v>
@@ -1741,7 +1738,7 @@
       </c>
       <c r="AC12" s="20"/>
       <c r="AD12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE12" s="17" t="s">
         <v>28</v>
@@ -1781,16 +1778,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="18" t="s">
@@ -1800,7 +1797,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="20"/>
@@ -1819,7 +1816,7 @@
       <c r="W13" s="18"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="22" t="s">
         <v>28</v>
@@ -1832,7 +1829,7 @@
       </c>
       <c r="AC13" s="20"/>
       <c r="AD13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE13" s="17" t="s">
         <v>28</v>
@@ -1845,7 +1842,7 @@
       </c>
       <c r="AH13" s="20"/>
       <c r="AI13" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ13" s="22" t="s">
         <v>28</v>
